--- a/biology/Botanique/Kimilsungia/Kimilsungia.xlsx
+++ b/biology/Botanique/Kimilsungia/Kimilsungia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La kimilsungia (également orthographiée en français kimilsunia) est un cultivar d'orchidée à fleurs mauves ainsi dénommée par référence au président nord-coréen Kim Il-sung, à qui le nom de cette fleur fut donné par le président indonésien Sukarno lors d'une visite du président Kim Il-sung en Indonésie en avril 1965[1].
-Les premières floralies de kimilisungia, qui se tiennent tous les ans à Pyongyang, ont eu lieu en 1999. Un musée consacré aux kimilsungia existe en Corée du Nord[2].
-Cette espèce a été créée par un botaniste indonésien[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La kimilsungia (également orthographiée en français kimilsunia) est un cultivar d'orchidée à fleurs mauves ainsi dénommée par référence au président nord-coréen Kim Il-sung, à qui le nom de cette fleur fut donné par le président indonésien Sukarno lors d'une visite du président Kim Il-sung en Indonésie en avril 1965.
+Les premières floralies de kimilisungia, qui se tiennent tous les ans à Pyongyang, ont eu lieu en 1999. Un musée consacré aux kimilsungia existe en Corée du Nord.
+Cette espèce a été créée par un botaniste indonésien.
 </t>
         </is>
       </c>
